--- a/Dokumentacja/Testy/Baza błedów i testy.xlsx
+++ b/Dokumentacja/Testy/Baza błedów i testy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alehandro T\Desktop\Projekt\GitRepo\Dokumentacja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alehandro T\Desktop\Projekt\GitRepo\Dokumentacja\Testy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B19866-73C6-452E-98F8-5A8FC90D5943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E845572B-6E71-4699-B5CE-F38314DDD917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="B6:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,7 +999,7 @@
   <dimension ref="B3:G13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
